--- a/results/mp/logistic/corona/confidence/84/desired-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/desired-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="166">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,181 +40,190 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>complaints</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>die</t>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>infected</t>
   </si>
   <si>
     <t>kill</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>died</t>
+    <t>problem</t>
   </si>
   <si>
     <t>falling</t>
   </si>
   <si>
-    <t>warning</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>drop</t>
   </si>
   <si>
     <t>lowest</t>
   </si>
   <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
     <t>ridiculous</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>sc</t>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>selfish</t>
   </si>
   <si>
     <t>uncertainty</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>recession</t>
+    <t>no</t>
   </si>
   <si>
     <t>pressure</t>
   </si>
   <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>saudi</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
     <t>fear</t>
   </si>
   <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>beginning</t>
+  </si>
+  <si>
+    <t>lower</t>
   </si>
   <si>
     <t>anxiety</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>shame</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>cut</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>ref</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>empty</t>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>stop</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>vulnerable</t>
+    <t>fight</t>
   </si>
   <si>
     <t>isolation</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>oil</t>
   </si>
   <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>prices</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>of</t>
+    <t>are</t>
   </si>
   <si>
     <t>a</t>
@@ -232,6 +241,15 @@
     <t>.</t>
   </si>
   <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -244,223 +262,256 @@
     <t>free</t>
   </si>
   <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>strong</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>growth</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>shares</t>
+  </si>
+  <si>
+    <t>huge</t>
   </si>
   <si>
     <t>kind</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
     <t>super</t>
   </si>
   <si>
-    <t>huge</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
     <t>clean</t>
   </si>
   <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
     <t>alert</t>
   </si>
   <si>
-    <t>boost</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>easter</t>
+  </si>
+  <si>
+    <t>helping</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>credit</t>
   </si>
   <si>
-    <t>easter</t>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>yourself</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>increased</t>
   </si>
   <si>
     <t>give</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
     <t>check</t>
   </si>
   <si>
     <t>keep</t>
   </si>
   <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
     <t>stay</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>and</t>
+    <t>we</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
   <si>
     <t>for</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>,</t>
+    <t>in</t>
   </si>
 </sst>
 </file>
@@ -818,7 +869,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:Q97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -826,10 +877,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -887,13 +938,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -905,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -937,13 +988,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9736842105263158</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -958,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K4">
         <v>0.9696969696969697</v>
@@ -987,13 +1038,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9411764705882353</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1005,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.95</v>
       </c>
       <c r="L5">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M5">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1029,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1037,13 +1088,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9333333333333333</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1058,16 +1109,16 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K6">
-        <v>0.9444444444444444</v>
+        <v>0.9375</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1108,7 +1159,7 @@
         <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K7">
         <v>0.9333333333333333</v>
@@ -1137,13 +1188,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8947368421052632</v>
+        <v>0.88</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1155,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K8">
         <v>0.9322033898305084</v>
@@ -1187,13 +1238,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8888888888888888</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="C9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1205,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K9">
         <v>0.9230769230769231</v>
@@ -1237,13 +1288,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8695652173913043</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1255,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K10">
         <v>0.9166666666666666</v>
@@ -1287,13 +1338,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8458904109589042</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C11">
-        <v>247</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>247</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1305,19 +1356,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K11">
-        <v>0.9090909090909091</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L11">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M11">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1337,13 +1388,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8333333333333334</v>
+        <v>0.8356164383561644</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>244</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>244</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1355,31 +1406,31 @@
         <v>0</v>
       </c>
       <c r="H12">
+        <v>48</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12">
+        <v>0.8936170212765957</v>
+      </c>
+      <c r="L12">
+        <v>42</v>
+      </c>
+      <c r="M12">
+        <v>42</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>5</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K12">
-        <v>0.8981723237597912</v>
-      </c>
-      <c r="L12">
-        <v>344</v>
-      </c>
-      <c r="M12">
-        <v>344</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1408,16 +1459,16 @@
         <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K13">
-        <v>0.8928571428571429</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="M13">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1429,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1437,13 +1488,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8125</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1455,19 +1506,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K14">
-        <v>0.8873239436619719</v>
+        <v>0.8828125</v>
       </c>
       <c r="L14">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="M14">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1479,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1487,13 +1538,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8076923076923077</v>
+        <v>0.8</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1505,19 +1556,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K15">
-        <v>0.8867924528301887</v>
+        <v>0.8825065274151436</v>
       </c>
       <c r="L15">
-        <v>94</v>
+        <v>338</v>
       </c>
       <c r="M15">
-        <v>94</v>
+        <v>338</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1529,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1537,13 +1588,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.8</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C16">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1555,19 +1606,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K16">
-        <v>0.86875</v>
+        <v>0.8802816901408451</v>
       </c>
       <c r="L16">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="M16">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1579,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1587,13 +1638,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.8</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1608,16 +1659,16 @@
         <v>5</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K17">
-        <v>0.859375</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="L17">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="M17">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1629,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1637,13 +1688,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7826086956521739</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1658,16 +1709,16 @@
         <v>5</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K18">
-        <v>0.8536585365853658</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L18">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="M18">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1679,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1687,13 +1738,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7727272727272727</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1705,19 +1756,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K19">
-        <v>0.8421052631578947</v>
+        <v>0.85</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="M19">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1729,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1737,13 +1788,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7450980392156863</v>
+        <v>0.725</v>
       </c>
       <c r="C20">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D20">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1755,19 +1806,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K20">
-        <v>0.8372093023255814</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L20">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M20">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1779,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1787,13 +1838,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7435897435897436</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C21">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1805,19 +1856,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K21">
-        <v>0.8333333333333334</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="M21">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1829,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1837,13 +1888,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.7368421052631579</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C22">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1855,19 +1906,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K22">
-        <v>0.8333333333333334</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L22">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="M22">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1879,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1887,13 +1938,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.7333333333333333</v>
+        <v>0.6841085271317829</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>353</v>
       </c>
       <c r="D23">
-        <v>22</v>
+        <v>353</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1905,19 +1956,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K23">
-        <v>0.8275862068965517</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="L23">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M23">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1929,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1937,13 +1988,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.7142857142857143</v>
+        <v>0.6772486772486772</v>
       </c>
       <c r="C24">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D24">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1955,19 +2006,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K24">
-        <v>0.8253968253968254</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L24">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1979,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1987,13 +2038,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6956521739130435</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D25">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2005,19 +2056,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K25">
-        <v>0.825</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L25">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M25">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2029,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2037,13 +2088,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.686046511627907</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="C26">
-        <v>354</v>
+        <v>39</v>
       </c>
       <c r="D26">
-        <v>354</v>
+        <v>39</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2055,19 +2106,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>162</v>
+        <v>20</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K26">
-        <v>0.8235294117647058</v>
+        <v>0.8</v>
       </c>
       <c r="L26">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2079,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2087,13 +2138,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6842105263157895</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2105,19 +2156,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K27">
-        <v>0.8214285714285714</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L27">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M27">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2129,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2137,13 +2188,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6779661016949152</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C28">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D28">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2155,19 +2206,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="K28">
-        <v>0.8085106382978723</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L28">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="M28">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2179,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2187,13 +2238,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6774193548387096</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C29">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D29">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2205,19 +2256,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="K29">
-        <v>0.7948717948717948</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L29">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M29">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2229,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2237,13 +2288,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6666666666666666</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="C30">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D30">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2255,19 +2306,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="K30">
-        <v>0.75</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L30">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M30">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2279,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2287,13 +2338,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6538461538461539</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C31">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D31">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2305,19 +2356,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="K31">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="L31">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="M31">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2329,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2337,13 +2388,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6538461538461539</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D32">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2355,19 +2406,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="K32">
-        <v>0.7470588235294118</v>
+        <v>0.7588235294117647</v>
       </c>
       <c r="L32">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M32">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2379,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2387,13 +2438,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.65</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C33">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D33">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2405,19 +2456,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K33">
-        <v>0.7407407407407407</v>
+        <v>0.75</v>
       </c>
       <c r="L33">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M33">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2437,13 +2488,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.6410256410256411</v>
+        <v>0.625</v>
       </c>
       <c r="C34">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D34">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2455,19 +2506,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K34">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="L34">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="M34">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2479,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2487,13 +2538,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.6129032258064516</v>
+        <v>0.6241610738255033</v>
       </c>
       <c r="C35">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="D35">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2505,19 +2556,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="K35">
-        <v>0.7391304347826086</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L35">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="M35">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2529,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2537,13 +2588,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.6107382550335571</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C36">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="D36">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2555,19 +2606,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K36">
-        <v>0.7368421052631579</v>
+        <v>0.7448979591836735</v>
       </c>
       <c r="L36">
-        <v>14</v>
+        <v>219</v>
       </c>
       <c r="M36">
-        <v>14</v>
+        <v>220</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2576,10 +2627,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2587,13 +2638,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.59375</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C37">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D37">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2605,19 +2656,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K37">
-        <v>0.7272727272727273</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L37">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M37">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2629,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2637,13 +2688,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.5909090909090909</v>
+        <v>0.5944444444444444</v>
       </c>
       <c r="C38">
-        <v>13</v>
+        <v>214</v>
       </c>
       <c r="D38">
-        <v>13</v>
+        <v>214</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2655,19 +2706,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K38">
-        <v>0.7210884353741497</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L38">
-        <v>212</v>
+        <v>17</v>
       </c>
       <c r="M38">
-        <v>213</v>
+        <v>17</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2676,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>82</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2687,13 +2738,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.5555555555555556</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C39">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D39">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2705,19 +2756,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="K39">
-        <v>0.7142857142857143</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L39">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M39">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2729,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2737,13 +2788,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.5527777777777778</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C40">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="D40">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2755,19 +2806,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="K40">
-        <v>0.7142857142857143</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="L40">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M40">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2779,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2787,13 +2838,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.5416666666666666</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C41">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D41">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2808,16 +2859,16 @@
         <v>11</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="K41">
-        <v>0.7111111111111111</v>
+        <v>0.7303370786516854</v>
       </c>
       <c r="L41">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="M41">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2829,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2837,13 +2888,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.5405405405405406</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C42">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D42">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2855,19 +2906,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="K42">
-        <v>0.7037037037037037</v>
+        <v>0.7127659574468085</v>
       </c>
       <c r="L42">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="M42">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2879,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2887,13 +2938,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.5272727272727272</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C43">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D43">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2905,19 +2956,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K43">
-        <v>0.7021276595744681</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L43">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="M43">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2929,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2937,13 +2988,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.5185185185185185</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C44">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D44">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2955,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K44">
-        <v>0.6861924686192469</v>
+        <v>0.702928870292887</v>
       </c>
       <c r="L44">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M44">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2979,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2987,37 +3038,37 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.509090909090909</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C45">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D45">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="K45">
-        <v>0.6666666666666666</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L45">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M45">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -3029,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3037,13 +3088,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.4933333333333333</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C46">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D46">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3055,19 +3106,19 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="K46">
-        <v>0.6615384615384615</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L46">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="M46">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3079,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3087,13 +3138,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.4838709677419355</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C47">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="D47">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3105,19 +3156,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K47">
-        <v>0.6571428571428571</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L47">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="M47">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3129,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3137,13 +3188,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.4821428571428572</v>
+        <v>0.52</v>
       </c>
       <c r="C48">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D48">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3155,19 +3206,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="K48">
-        <v>0.6470588235294118</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L48">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M48">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3179,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3187,13 +3238,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.4814814814814815</v>
+        <v>0.5</v>
       </c>
       <c r="C49">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D49">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3205,19 +3256,19 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="K49">
-        <v>0.6404494382022472</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L49">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="M49">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3229,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3237,13 +3288,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.4666666666666667</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C50">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D50">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3258,16 +3309,16 @@
         <v>16</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="K50">
-        <v>0.6363636363636364</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L50">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="M50">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3279,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3287,37 +3338,37 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.4333333333333333</v>
+        <v>0.48</v>
       </c>
       <c r="C51">
+        <v>36</v>
+      </c>
+      <c r="D51">
+        <v>36</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51">
         <v>39</v>
       </c>
-      <c r="D51">
-        <v>39</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>51</v>
-      </c>
       <c r="J51" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="K51">
-        <v>0.6296296296296297</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="L51">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M51">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3329,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3337,13 +3388,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.4155844155844156</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="C52">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D52">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3355,19 +3406,19 @@
         <v>0</v>
       </c>
       <c r="H52">
+        <v>31</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K52">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="L52">
         <v>45</v>
       </c>
-      <c r="J52" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K52">
-        <v>0.625</v>
-      </c>
-      <c r="L52">
-        <v>15</v>
-      </c>
       <c r="M52">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3379,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3387,13 +3438,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="C53">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D53">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3405,19 +3456,19 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="K53">
-        <v>0.6190476190476191</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L53">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M53">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3429,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3437,13 +3488,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.3529411764705883</v>
+        <v>0.3452380952380952</v>
       </c>
       <c r="C54">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="D54">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3455,19 +3506,19 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="K54">
-        <v>0.6153846153846154</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L54">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M54">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3479,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3487,13 +3538,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.3412698412698413</v>
+        <v>0.3376623376623377</v>
       </c>
       <c r="C55">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="D55">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3505,19 +3556,19 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>166</v>
+        <v>51</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="K55">
-        <v>0.6129032258064516</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L55">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M55">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3529,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3537,13 +3588,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2875</v>
+        <v>0.275</v>
       </c>
       <c r="C56">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D56">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3555,19 +3606,19 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K56">
-        <v>0.5714285714285714</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L56">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M56">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3579,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3587,13 +3638,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2278820375335121</v>
+        <v>0.2549019607843137</v>
       </c>
       <c r="C57">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="D57">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3605,19 +3656,19 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>288</v>
+        <v>38</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="K57">
-        <v>0.5652173913043478</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L57">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M57">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3637,13 +3688,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.08</v>
+        <v>0.2305630026809651</v>
       </c>
       <c r="C58">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D58">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3655,19 +3706,19 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K58">
-        <v>0.547945205479452</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L58">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="M58">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3679,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3687,13 +3738,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.01205857019810508</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="C59">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D59">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3705,19 +3756,19 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>1147</v>
+        <v>265</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K59">
-        <v>0.5357142857142857</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="L59">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M59">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3737,37 +3788,37 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.0109642050951306</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C60">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D60">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="E60">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F60">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
       </c>
       <c r="H60">
-        <v>3067</v>
+        <v>2310</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="K60">
-        <v>0.4915254237288136</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L60">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M60">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3779,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -3787,37 +3838,37 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.01054407423028258</v>
+        <v>0.022508038585209</v>
       </c>
       <c r="C61">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D61">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E61">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="F61">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>2346</v>
+        <v>608</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K61">
-        <v>0.484375</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L61">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="M61">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3829,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -3837,37 +3888,37 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.00782608695652174</v>
+        <v>0.01582176299644818</v>
       </c>
       <c r="C62">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D62">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="E62">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="F62">
-        <v>0.6699999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>2282</v>
+        <v>3048</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="K62">
-        <v>0.4487179487179487</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L62">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M62">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3879,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -3887,37 +3938,37 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.007019185774450164</v>
+        <v>0.01379310344827586</v>
       </c>
       <c r="C63">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D63">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E63">
-        <v>0.29</v>
+        <v>0.06</v>
       </c>
       <c r="F63">
-        <v>0.71</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
       </c>
       <c r="H63">
-        <v>2122</v>
+        <v>1144</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="K63">
-        <v>0.4411764705882353</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L63">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M63">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3929,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -3937,31 +3988,31 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.006035283194057568</v>
+        <v>0.01024428684003152</v>
       </c>
       <c r="C64">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D64">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E64">
-        <v>0.43</v>
+        <v>0.61</v>
       </c>
       <c r="F64">
-        <v>0.5700000000000001</v>
+        <v>0.39</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
       </c>
       <c r="H64">
-        <v>4282</v>
+        <v>1256</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K64">
-        <v>0.4193548387096774</v>
+        <v>0.5</v>
       </c>
       <c r="L64">
         <v>13</v>
@@ -3979,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -3987,37 +4038,37 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.004665629860031105</v>
+        <v>0.00914235959947758</v>
       </c>
       <c r="C65">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D65">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E65">
-        <v>0.47</v>
+        <v>0.36</v>
       </c>
       <c r="F65">
-        <v>0.53</v>
+        <v>0.64</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>5120</v>
+        <v>2276</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="K65">
-        <v>0.4098360655737705</v>
+        <v>0.484375</v>
       </c>
       <c r="L65">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M65">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -4029,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -4037,439 +4088,999 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.004423889000603257</v>
+        <v>0.007029053420805998</v>
       </c>
       <c r="C66">
+        <v>15</v>
+      </c>
+      <c r="D66">
+        <v>24</v>
+      </c>
+      <c r="E66">
+        <v>0.38</v>
+      </c>
+      <c r="F66">
+        <v>0.62</v>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>2119</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K66">
+        <v>0.4516129032258064</v>
+      </c>
+      <c r="L66">
+        <v>14</v>
+      </c>
+      <c r="M66">
+        <v>14</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67">
+        <v>0.006991377301328362</v>
+      </c>
+      <c r="C67">
+        <v>30</v>
+      </c>
+      <c r="D67">
+        <v>67</v>
+      </c>
+      <c r="E67">
+        <v>0.55</v>
+      </c>
+      <c r="F67">
+        <v>0.45</v>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>4261</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K67">
+        <v>0.423728813559322</v>
+      </c>
+      <c r="L67">
+        <v>25</v>
+      </c>
+      <c r="M67">
+        <v>25</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68">
+        <v>0.006621226874391432</v>
+      </c>
+      <c r="C68">
+        <v>34</v>
+      </c>
+      <c r="D68">
+        <v>64</v>
+      </c>
+      <c r="E68">
+        <v>0.47</v>
+      </c>
+      <c r="F68">
+        <v>0.53</v>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>5101</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K68">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="L68">
+        <v>30</v>
+      </c>
+      <c r="M68">
+        <v>31</v>
+      </c>
+      <c r="N68">
+        <v>0.97</v>
+      </c>
+      <c r="O68">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69">
+        <v>0.005838534326555265</v>
+      </c>
+      <c r="C69">
+        <v>29</v>
+      </c>
+      <c r="D69">
+        <v>58</v>
+      </c>
+      <c r="E69">
+        <v>0.5</v>
+      </c>
+      <c r="F69">
+        <v>0.5</v>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>4938</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K69">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="L69">
+        <v>14</v>
+      </c>
+      <c r="M69">
+        <v>14</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70">
+        <v>0.005785123966942148</v>
+      </c>
+      <c r="C70">
+        <v>14</v>
+      </c>
+      <c r="D70">
+        <v>39</v>
+      </c>
+      <c r="E70">
+        <v>0.64</v>
+      </c>
+      <c r="F70">
+        <v>0.36</v>
+      </c>
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>2406</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K70">
+        <v>0.4</v>
+      </c>
+      <c r="L70">
+        <v>16</v>
+      </c>
+      <c r="M70">
+        <v>16</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71">
+        <v>0.005315110098709187</v>
+      </c>
+      <c r="C71">
+        <v>14</v>
+      </c>
+      <c r="D71">
+        <v>53</v>
+      </c>
+      <c r="E71">
+        <v>0.74</v>
+      </c>
+      <c r="F71">
+        <v>0.26</v>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>2620</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K71">
+        <v>0.4</v>
+      </c>
+      <c r="L71">
+        <v>14</v>
+      </c>
+      <c r="M71">
+        <v>14</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72">
+        <v>0.00441222817522849</v>
+      </c>
+      <c r="C72">
+        <v>14</v>
+      </c>
+      <c r="D72">
+        <v>42</v>
+      </c>
+      <c r="E72">
+        <v>0.67</v>
+      </c>
+      <c r="F72">
+        <v>0.33</v>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>3159</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K72">
+        <v>0.3859649122807017</v>
+      </c>
+      <c r="L72">
         <v>22</v>
       </c>
-      <c r="D66">
-        <v>45</v>
-      </c>
-      <c r="E66">
-        <v>0.51</v>
-      </c>
-      <c r="F66">
-        <v>0.49</v>
-      </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66">
-        <v>4951</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K66">
-        <v>0.3508771929824561</v>
-      </c>
-      <c r="L66">
-        <v>20</v>
-      </c>
-      <c r="M66">
-        <v>20</v>
-      </c>
-      <c r="N66">
-        <v>1</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17">
-      <c r="J67" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="K67">
-        <v>0.2638888888888889</v>
-      </c>
-      <c r="L67">
-        <v>19</v>
-      </c>
-      <c r="M67">
-        <v>19</v>
-      </c>
-      <c r="N67">
-        <v>1</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17">
-      <c r="J68" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K68">
-        <v>0.2110091743119266</v>
-      </c>
-      <c r="L68">
-        <v>23</v>
-      </c>
-      <c r="M68">
-        <v>23</v>
-      </c>
-      <c r="N68">
-        <v>1</v>
-      </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-      <c r="P68" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17">
-      <c r="J69" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K69">
-        <v>0.1612903225806452</v>
-      </c>
-      <c r="L69">
-        <v>20</v>
-      </c>
-      <c r="M69">
-        <v>20</v>
-      </c>
-      <c r="N69">
-        <v>1</v>
-      </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="P69" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17">
-      <c r="J70" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="K70">
-        <v>0.06493506493506493</v>
-      </c>
-      <c r="L70">
-        <v>20</v>
-      </c>
-      <c r="M70">
-        <v>20</v>
-      </c>
-      <c r="N70">
-        <v>1</v>
-      </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-      <c r="P70" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17">
-      <c r="J71" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K71">
-        <v>0.04807692307692308</v>
-      </c>
-      <c r="L71">
-        <v>20</v>
-      </c>
-      <c r="M71">
-        <v>20</v>
-      </c>
-      <c r="N71">
-        <v>1</v>
-      </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17">
-      <c r="J72" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="K72">
-        <v>0.02005012531328321</v>
-      </c>
-      <c r="L72">
-        <v>24</v>
-      </c>
       <c r="M72">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N72">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>1173</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="1:17">
       <c r="J73" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="K73">
-        <v>0.01331245105716523</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="L73">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M73">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N73">
-        <v>0.59</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>1260</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:17">
       <c r="J74" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="K74">
-        <v>0.009009009009009009</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="L74">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M74">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="N74">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>2640</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:17">
       <c r="J75" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="K75">
-        <v>0.008816120906801008</v>
+        <v>0.2293577981651376</v>
       </c>
       <c r="L75">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M75">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N75">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>1574</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:17">
       <c r="J76" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="K76">
-        <v>0.008782936010037641</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="L76">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M76">
         <v>24</v>
       </c>
       <c r="N76">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>2370</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:17">
       <c r="J77" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="K77">
-        <v>0.008147916013788781</v>
+        <v>0.0979020979020979</v>
       </c>
       <c r="L77">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M77">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="N77">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>3165</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78" spans="1:17">
       <c r="J78" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K78">
-        <v>0.007392197125256674</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="L78">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M78">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N78">
-        <v>0.64</v>
+        <v>1</v>
       </c>
       <c r="O78">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="P78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>2417</v>
+        <v>170</v>
       </c>
     </row>
     <row r="79" spans="1:17">
       <c r="J79" s="1" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="K79">
-        <v>0.004649000464900047</v>
+        <v>0.05730659025787966</v>
       </c>
       <c r="L79">
         <v>20</v>
       </c>
       <c r="M79">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="N79">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0.5700000000000001</v>
+        <v>0</v>
       </c>
       <c r="P79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>4282</v>
+        <v>329</v>
       </c>
     </row>
     <row r="80" spans="1:17">
       <c r="J80" s="1" t="s">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="K80">
-        <v>0.004624045034177724</v>
+        <v>0.056672760511883</v>
       </c>
       <c r="L80">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M80">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="N80">
-        <v>0.51</v>
+        <v>1</v>
       </c>
       <c r="O80">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="P80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>4951</v>
+        <v>516</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="K81">
-        <v>0.004084808403034429</v>
+        <v>0.05183946488294314</v>
       </c>
       <c r="L81">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="M81">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="N81">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O81">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P81" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K82">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="L82">
+        <v>14</v>
+      </c>
+      <c r="M82">
+        <v>14</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K83">
+        <v>0.02653399668325042</v>
+      </c>
+      <c r="L83">
+        <v>16</v>
+      </c>
+      <c r="M83">
+        <v>18</v>
+      </c>
+      <c r="N83">
+        <v>0.89</v>
+      </c>
+      <c r="O83">
+        <v>0.11</v>
+      </c>
+      <c r="P83" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="84" spans="10:17">
+      <c r="J84" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K84">
+        <v>0.02439024390243903</v>
+      </c>
+      <c r="L84">
+        <v>24</v>
+      </c>
+      <c r="M84">
+        <v>29</v>
+      </c>
+      <c r="N84">
+        <v>0.83</v>
+      </c>
+      <c r="O84">
+        <v>0.17</v>
+      </c>
+      <c r="P84" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17">
+      <c r="J85" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K85">
+        <v>0.01666666666666667</v>
+      </c>
+      <c r="L85">
+        <v>15</v>
+      </c>
+      <c r="M85">
+        <v>16</v>
+      </c>
+      <c r="N85">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O85">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P85" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K86">
+        <v>0.01567398119122257</v>
+      </c>
+      <c r="L86">
+        <v>20</v>
+      </c>
+      <c r="M86">
+        <v>33</v>
+      </c>
+      <c r="N86">
+        <v>0.61</v>
+      </c>
+      <c r="O86">
+        <v>0.39</v>
+      </c>
+      <c r="P86" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K87">
+        <v>0.0146671681083114</v>
+      </c>
+      <c r="L87">
+        <v>39</v>
+      </c>
+      <c r="M87">
+        <v>53</v>
+      </c>
+      <c r="N87">
+        <v>0.74</v>
+      </c>
+      <c r="O87">
+        <v>0.26</v>
+      </c>
+      <c r="P87" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
+      <c r="J88" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K88">
+        <v>0.01351351351351351</v>
+      </c>
+      <c r="L88">
+        <v>14</v>
+      </c>
+      <c r="M88">
+        <v>18</v>
+      </c>
+      <c r="N88">
+        <v>0.78</v>
+      </c>
+      <c r="O88">
+        <v>0.22</v>
+      </c>
+      <c r="P88" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="89" spans="10:17">
+      <c r="J89" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K89">
+        <v>0.01213389121338912</v>
+      </c>
+      <c r="L89">
+        <v>29</v>
+      </c>
+      <c r="M89">
+        <v>33</v>
+      </c>
+      <c r="N89">
+        <v>0.88</v>
+      </c>
+      <c r="O89">
+        <v>0.12</v>
+      </c>
+      <c r="P89" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="90" spans="10:17">
+      <c r="J90" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K90">
+        <v>0.01197227473219912</v>
+      </c>
+      <c r="L90">
+        <v>19</v>
+      </c>
+      <c r="M90">
+        <v>26</v>
+      </c>
+      <c r="N90">
+        <v>0.73</v>
+      </c>
+      <c r="O90">
+        <v>0.27</v>
+      </c>
+      <c r="P90" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="91" spans="10:17">
+      <c r="J91" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K91">
+        <v>0.01028383381324558</v>
+      </c>
+      <c r="L91">
+        <v>25</v>
+      </c>
+      <c r="M91">
+        <v>39</v>
+      </c>
+      <c r="N91">
+        <v>0.64</v>
+      </c>
+      <c r="O91">
+        <v>0.36</v>
+      </c>
+      <c r="P91" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="92" spans="10:17">
+      <c r="J92" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K92">
+        <v>0.008785691873235017</v>
+      </c>
+      <c r="L92">
+        <v>28</v>
+      </c>
+      <c r="M92">
+        <v>42</v>
+      </c>
+      <c r="N92">
+        <v>0.67</v>
+      </c>
+      <c r="O92">
+        <v>0.33</v>
+      </c>
+      <c r="P92" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="93" spans="10:17">
+      <c r="J93" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K93">
+        <v>0.008608655188459749</v>
+      </c>
+      <c r="L93">
+        <v>37</v>
+      </c>
+      <c r="M93">
+        <v>67</v>
+      </c>
+      <c r="N93">
+        <v>0.55</v>
+      </c>
+      <c r="O93">
+        <v>0.45</v>
+      </c>
+      <c r="P93" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="94" spans="10:17">
+      <c r="J94" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K94">
+        <v>0.007903300790330079</v>
+      </c>
+      <c r="L94">
+        <v>17</v>
+      </c>
+      <c r="M94">
+        <v>24</v>
+      </c>
+      <c r="N94">
+        <v>0.71</v>
+      </c>
+      <c r="O94">
+        <v>0.29</v>
+      </c>
+      <c r="P94" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="95" spans="10:17">
+      <c r="J95" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K95">
+        <v>0.006024096385542169</v>
+      </c>
+      <c r="L95">
+        <v>14</v>
+      </c>
+      <c r="M95">
+        <v>69</v>
+      </c>
+      <c r="N95">
+        <v>0.2</v>
+      </c>
+      <c r="O95">
+        <v>0.8</v>
+      </c>
+      <c r="P95" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="96" spans="10:17">
+      <c r="J96" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K96">
+        <v>0.005846813486649776</v>
+      </c>
+      <c r="L96">
+        <v>30</v>
+      </c>
+      <c r="M96">
+        <v>64</v>
+      </c>
+      <c r="N96">
         <v>0.47</v>
       </c>
-      <c r="O81">
+      <c r="O96">
         <v>0.53</v>
       </c>
-      <c r="P81" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q81">
-        <v>5120</v>
+      <c r="P96" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q96">
+        <v>5101</v>
+      </c>
+    </row>
+    <row r="97" spans="10:17">
+      <c r="J97" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K97">
+        <v>0.005838534326555265</v>
+      </c>
+      <c r="L97">
+        <v>29</v>
+      </c>
+      <c r="M97">
+        <v>58</v>
+      </c>
+      <c r="N97">
+        <v>0.5</v>
+      </c>
+      <c r="O97">
+        <v>0.5</v>
+      </c>
+      <c r="P97" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q97">
+        <v>4938</v>
       </c>
     </row>
   </sheetData>
